--- a/doc/Data_Dictionary.xlsx
+++ b/doc/Data_Dictionary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="101">
   <si>
     <t>train.csv</t>
   </si>
@@ -241,22 +241,18 @@
     <t>Range of quantity of transactions in last active month --&gt; A &gt; B &gt; C &gt; D &gt; E</t>
   </si>
   <si>
+    <t>card_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>train</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>card_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>history</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>train</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TableCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -266,10 +262,6 @@
   </si>
   <si>
     <t>merchant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>train</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +376,10 @@
   </si>
   <si>
     <t>target</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>train &amp; test</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -561,9 +557,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,6 +580,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -916,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -937,10 +933,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1026,10 +1022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1179,10 +1175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
@@ -1336,10 +1332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1543,7 +1539,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1556,1050 +1552,1050 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18">
+        <v>1</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>2</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="F24" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>2</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="23">
+        <v>2</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16">
+        <v>2</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16">
+        <v>2</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18">
+        <v>2</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="C35" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>3</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12">
+        <v>3</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="16">
+        <v>3</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12">
+        <v>3</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="16">
+        <v>3</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19">
-        <v>0</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="F40" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="B41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="23">
+        <v>3</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="23" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="12">
+        <v>3</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="16">
+        <v>3</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12">
+        <v>3</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="16">
+        <v>3</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12">
+        <v>3</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="16">
+        <v>3</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12">
+        <v>3</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="16">
+        <v>3</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12">
+        <v>3</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="16">
+        <v>3</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12">
+        <v>3</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="16">
+        <v>3</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="15" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="12">
+        <v>3</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17">
-        <v>1</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="15" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" s="16">
+        <v>3</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="19">
-        <v>1</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="21" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="18">
+        <v>3</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9">
-        <v>2</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13">
-        <v>2</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17">
-        <v>2</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13">
-        <v>2</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="24">
-        <v>2</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13">
-        <v>2</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17">
-        <v>2</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17">
-        <v>2</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13">
-        <v>2</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17">
-        <v>2</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13">
-        <v>2</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17">
-        <v>2</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="19">
-        <v>2</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="9">
-        <v>3</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13">
-        <v>3</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17">
-        <v>3</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="13">
-        <v>3</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17">
-        <v>3</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="13">
-        <v>3</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="24">
-        <v>3</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="13">
-        <v>3</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="17">
-        <v>3</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="13">
-        <v>3</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="17">
-        <v>3</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="13">
-        <v>3</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="17">
-        <v>3</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="13">
-        <v>3</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="17">
-        <v>3</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="13">
-        <v>3</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="17">
-        <v>3</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13">
-        <v>3</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="17">
-        <v>3</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="13">
-        <v>3</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="17">
-        <v>3</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="19">
-        <v>3</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="27" t="s">
         <v>58</v>
       </c>
     </row>

--- a/doc/Data_Dictionary.xlsx
+++ b/doc/Data_Dictionary.xlsx
@@ -12,6 +12,7 @@
     <sheet name="new_merchant_period" sheetId="4" r:id="rId3"/>
     <sheet name="merchant" sheetId="2" r:id="rId4"/>
     <sheet name="merge" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="108">
   <si>
     <t>train.csv</t>
   </si>
@@ -380,6 +381,29 @@
   </si>
   <si>
     <t>train &amp; test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>purchase_month</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>level2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>level2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1538,15 +1562,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="91.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2231,7 +2255,9 @@
       <c r="C37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="E37" s="14" t="s">
         <v>92</v>
       </c>
@@ -2267,7 +2293,9 @@
       <c r="C39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E39" s="14" t="s">
         <v>92</v>
       </c>
@@ -2285,7 +2313,9 @@
       <c r="C40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E40" s="14" t="s">
         <v>97</v>
       </c>
@@ -2303,7 +2333,9 @@
       <c r="C41" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E41" s="14" t="s">
         <v>97</v>
       </c>
@@ -2321,7 +2353,9 @@
       <c r="C42" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="E42" s="25" t="s">
         <v>92</v>
       </c>
@@ -2339,7 +2373,9 @@
       <c r="C43" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E43" s="14" t="s">
         <v>92</v>
       </c>
@@ -2357,7 +2393,9 @@
       <c r="C44" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E44" s="14" t="s">
         <v>92</v>
       </c>
@@ -2375,7 +2413,9 @@
       <c r="C45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="E45" s="29" t="s">
         <v>97</v>
       </c>
@@ -2393,7 +2433,9 @@
       <c r="C46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E46" s="14" t="s">
         <v>97</v>
       </c>
@@ -2411,7 +2453,9 @@
       <c r="C47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E47" s="14" t="s">
         <v>97</v>
       </c>
@@ -2429,7 +2473,9 @@
       <c r="C48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E48" s="14" t="s">
         <v>97</v>
       </c>
@@ -2447,7 +2493,9 @@
       <c r="C49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E49" s="14" t="s">
         <v>97</v>
       </c>
@@ -2465,7 +2513,9 @@
       <c r="C50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E50" s="14" t="s">
         <v>97</v>
       </c>
@@ -2483,7 +2533,9 @@
       <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E51" s="14" t="s">
         <v>97</v>
       </c>
@@ -2501,7 +2553,9 @@
       <c r="C52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E52" s="14" t="s">
         <v>97</v>
       </c>
@@ -2519,7 +2573,9 @@
       <c r="C53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E53" s="14" t="s">
         <v>97</v>
       </c>
@@ -2537,7 +2593,9 @@
       <c r="C54" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E54" s="14" t="s">
         <v>92</v>
       </c>
@@ -2555,7 +2613,9 @@
       <c r="C55" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E55" s="14" t="s">
         <v>92</v>
       </c>
@@ -2573,7 +2633,9 @@
       <c r="C56" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E56" s="14" t="s">
         <v>92</v>
       </c>
@@ -2591,7 +2653,9 @@
       <c r="C57" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="E57" s="20" t="s">
         <v>92</v>
       </c>
@@ -2607,4 +2671,127 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>